--- a/PythonProjects/DataAnalysis/2/2.xlsx
+++ b/PythonProjects/DataAnalysis/2/2.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Clinsen\Desktop\2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Clinsen\Desktop\ІАД\2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58915A7D-1194-4347-8416-B0393B2A261D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5E6F5A-75C4-4DEB-9552-36730944AD83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>Номер партії</t>
   </si>
@@ -102,14 +103,74 @@
     <t>F. крит</t>
   </si>
   <si>
-    <t>Фактор Y впливає на ознаку А</t>
+    <t>Anova: Single Factor</t>
+  </si>
+  <si>
+    <t>SUMMARY</t>
+  </si>
+  <si>
+    <t>Groups</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Variance</t>
+  </si>
+  <si>
+    <t>Column 1</t>
+  </si>
+  <si>
+    <t>Column 2</t>
+  </si>
+  <si>
+    <t>Column 3</t>
+  </si>
+  <si>
+    <t>Column 4</t>
+  </si>
+  <si>
+    <t>ANOVA</t>
+  </si>
+  <si>
+    <t>Source of Variation</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>P-value</t>
+  </si>
+  <si>
+    <t>F crit</t>
+  </si>
+  <si>
+    <t>Between Groups</t>
+  </si>
+  <si>
+    <t>Within Groups</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,6 +253,14 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -235,7 +304,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -366,6 +435,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -373,7 +462,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -381,68 +470,73 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="3" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="3" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="3" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -730,8 +824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26:I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -740,453 +834,453 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="G1" s="4" t="s">
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="G1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5">
+      <c r="A2" s="10"/>
+      <c r="B2" s="3">
         <v>1</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="3">
         <v>2</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="3">
         <v>3</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="3">
         <v>4</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="10">
         <v>1</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4">
+      <c r="H2" s="10"/>
+      <c r="I2" s="10">
         <v>2</v>
       </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4">
+      <c r="J2" s="10"/>
+      <c r="K2" s="10">
         <v>3</v>
       </c>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4">
+      <c r="L2" s="10"/>
+      <c r="M2" s="10">
         <v>4</v>
       </c>
-      <c r="N2" s="4"/>
+      <c r="N2" s="10"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="4">
         <v>1.55</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="4">
         <v>1.62</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="4">
         <v>1.69</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="4">
         <v>1.76</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="11">
         <f>AVERAGE(B3:B9)</f>
         <v>2.5942857142857143</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3">
+      <c r="H3" s="11"/>
+      <c r="I3" s="11">
         <f>AVERAGE(C3:C9)</f>
         <v>1.7183333333333335</v>
       </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3">
+      <c r="J3" s="11"/>
+      <c r="K3" s="11">
         <f>AVERAGE(D3:D9)</f>
         <v>2.2783333333333333</v>
       </c>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3">
+      <c r="L3" s="11"/>
+      <c r="M3" s="11">
         <f>AVERAGE(E3:E9)</f>
         <v>1.1825000000000001</v>
       </c>
-      <c r="N3" s="3"/>
+      <c r="N3" s="11"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="4">
         <v>0.7</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="4">
         <v>0.52</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="4">
         <v>0.34</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="4">
         <v>0.17</v>
       </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
     </row>
     <row r="5" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A5" s="5">
+      <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="4">
         <v>0.22</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="4">
         <v>0.12</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="4">
         <v>0.47</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="4">
         <v>0.81</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="4">
         <v>0.38</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="4">
         <v>0.91</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="4">
         <v>1.45</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="4">
         <v>1.99</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="9">
         <f>AVERAGE(B3:E9)</f>
         <v>2.0378260869565219</v>
       </c>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="4">
         <v>1.7</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="4">
         <v>2.79</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="4">
         <v>3.89</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
+      <c r="E7" s="4"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="4">
         <v>2.88</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="4">
         <v>4.3499999999999996</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="4">
         <v>5.83</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
+      <c r="E8" s="4"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+      <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="4">
         <v>10.73</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
     </row>
     <row r="11" spans="1:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="G11" s="10" t="s">
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="G11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="A12" s="11">
         <f>SUM(B12:E18)</f>
         <v>126.49239130434785</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="4">
         <f>(B3-$G$6)^2</f>
         <v>0.23797429111531201</v>
       </c>
-      <c r="C12" s="6">
-        <f t="shared" ref="C12:E12" si="0">(C3-$G$6)^2</f>
+      <c r="C12" s="4">
+        <f t="shared" ref="C12:D12" si="0">(C3-$G$6)^2</f>
         <v>0.17457863894139891</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="4">
         <f t="shared" si="0"/>
         <v>0.12098298676748596</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="4">
         <f>(E3-$G$6)^2</f>
         <v>7.7187334593572868E-2</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="14">
         <f>(G4-$G$6)^2 * 7</f>
         <v>29.069146124763712</v>
       </c>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9">
+      <c r="H12" s="14"/>
+      <c r="I12" s="14">
         <f>(I4-$G$6)^2 * 6</f>
         <v>24.91641096408318</v>
       </c>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9">
+      <c r="J12" s="14"/>
+      <c r="K12" s="14">
         <f>(K4-$G$6)^2 * 6</f>
         <v>24.91641096408318</v>
       </c>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9">
+      <c r="L12" s="14"/>
+      <c r="M12" s="14">
         <f>(M4-$G$6)^2 * 4</f>
         <v>16.61094064272212</v>
       </c>
-      <c r="N12" s="9"/>
+      <c r="N12" s="14"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="6">
+      <c r="A13" s="11"/>
+      <c r="B13" s="4">
         <f t="shared" ref="B13:E18" si="1">(B4-$G$6)^2</f>
         <v>1.7897786389413994</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="4">
         <f t="shared" si="1"/>
         <v>2.303796030245747</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="4">
         <f t="shared" si="1"/>
         <v>2.8826134215500949</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="4">
         <f t="shared" si="1"/>
         <v>3.4887742911153126</v>
       </c>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
     </row>
     <row r="14" spans="1:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="A14" s="3"/>
-      <c r="B14" s="6">
+      <c r="A14" s="11"/>
+      <c r="B14" s="4">
         <f t="shared" si="1"/>
         <v>3.3044916824196604</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="4">
         <f t="shared" si="1"/>
         <v>3.6780568998109642</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="4">
         <f t="shared" si="1"/>
         <v>2.4580786389413993</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="4">
         <f t="shared" si="1"/>
         <v>1.5075568998109643</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="6">
+      <c r="A15" s="11"/>
+      <c r="B15" s="4">
         <f t="shared" si="1"/>
         <v>2.7483873345935739</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="4">
         <f t="shared" si="1"/>
         <v>1.2719916824196598</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="4">
         <f t="shared" si="1"/>
         <v>0.34553950850661652</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="4">
         <f t="shared" si="1"/>
         <v>2.2873345935727949E-3</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="24">
         <f>SUM(G12:N12)</f>
         <v>95.512908695652186</v>
       </c>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="6">
+      <c r="A16" s="11"/>
+      <c r="B16" s="4">
         <f t="shared" si="1"/>
         <v>0.11412646502835552</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="4">
         <f t="shared" si="1"/>
         <v>0.56576559546313776</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="4">
         <f t="shared" si="1"/>
         <v>3.4305482041587902</v>
       </c>
-      <c r="E16" s="6"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
+      <c r="E16" s="4"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="6">
+      <c r="A17" s="11"/>
+      <c r="B17" s="4">
         <f t="shared" si="1"/>
         <v>0.70925689981096363</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="4">
         <f t="shared" si="1"/>
         <v>5.346148204158788</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="4">
         <f t="shared" si="1"/>
         <v>14.380582986767486</v>
       </c>
-      <c r="E17" s="6"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
+      <c r="E17" s="4"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="6">
+      <c r="A18" s="11"/>
+      <c r="B18" s="4">
         <f t="shared" si="1"/>
         <v>75.553887334593597</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
@@ -1196,230 +1290,228 @@
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="G20" s="4" t="s">
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="G20" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="K20" s="4" t="s">
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="K20" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="5" t="s">
+      <c r="A21" s="10"/>
+      <c r="B21" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="G21" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H21" s="4"/>
-      <c r="I21" s="13">
+      <c r="H21" s="10"/>
+      <c r="I21" s="5">
         <f>A9-1</f>
         <v>6</v>
       </c>
-      <c r="K21" s="9">
+      <c r="K21" s="14">
         <f>G15/I21</f>
         <v>15.918818115942031</v>
       </c>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9">
+      <c r="L21" s="14"/>
+      <c r="M21" s="14">
         <f>A22/I22</f>
         <v>8.9105182330827066</v>
       </c>
-      <c r="N21" s="9"/>
+      <c r="N21" s="14"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
+      <c r="A22" s="11">
         <f>SUM(B22:E28)</f>
         <v>169.29984642857144</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="4">
         <f>(B3-$G$3)^2</f>
         <v>1.0905326530612245</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="4">
         <f>(C3-$I$4)^2</f>
         <v>2.6244000000000005</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="4">
         <f>(D3-$K$4)^2</f>
         <v>2.8560999999999996</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="4">
         <f>(E3-$M$3)^2</f>
         <v>0.33350624999999989</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="G22" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H22" s="4"/>
-      <c r="I22" s="14">
+      <c r="H22" s="10"/>
+      <c r="I22" s="6">
         <f>23-4</f>
         <v>19</v>
       </c>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="6">
+      <c r="A23" s="11"/>
+      <c r="B23" s="4">
         <f t="shared" ref="B23:B28" si="2">(B4-$G$3)^2</f>
         <v>3.5883183673469392</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="4">
         <f t="shared" ref="C23:C27" si="3">(C4-$I$4)^2</f>
         <v>0.27040000000000003</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="4">
         <f t="shared" ref="D23:D27" si="4">(D4-$K$4)^2</f>
         <v>0.11560000000000002</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="4">
         <f t="shared" ref="E23:E25" si="5">(E4-$M$3)^2</f>
         <v>1.0251562500000004</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="6">
+      <c r="A24" s="11"/>
+      <c r="B24" s="4">
         <f t="shared" si="2"/>
         <v>5.6372326530612238</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="4">
         <f t="shared" si="3"/>
         <v>1.44E-2</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="4">
         <f t="shared" si="4"/>
         <v>0.22089999999999999</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="4">
         <f t="shared" si="5"/>
         <v>0.13875625000000005</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="G24" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="K24" s="24" t="s">
-        <v>25</v>
-      </c>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="K24" s="15"/>
       <c r="L24" s="16"/>
       <c r="M24" s="16"/>
       <c r="N24" s="17"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="6">
+      <c r="A25" s="11"/>
+      <c r="B25" s="4">
         <f t="shared" si="2"/>
         <v>4.9030612244897966</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="4">
         <f t="shared" si="3"/>
         <v>0.82810000000000006</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="4">
         <f t="shared" si="4"/>
         <v>2.1025</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="4">
         <f t="shared" si="5"/>
         <v>0.65205624999999978</v>
       </c>
-      <c r="G25" s="15" t="s">
+      <c r="G25" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H25" s="11">
         <f>K21/M21</f>
         <v>1.7865198969953417</v>
       </c>
-      <c r="I25" s="3"/>
+      <c r="I25" s="11"/>
       <c r="K25" s="18"/>
       <c r="L25" s="19"/>
       <c r="M25" s="19"/>
       <c r="N25" s="20"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="6">
+      <c r="A26" s="11"/>
+      <c r="B26" s="4">
         <f t="shared" si="2"/>
         <v>0.79974693877551029</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="4">
         <f t="shared" si="3"/>
         <v>7.7841000000000005</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="4">
         <f t="shared" si="4"/>
         <v>15.132100000000001</v>
       </c>
-      <c r="E26" s="6"/>
-      <c r="G26" s="15" t="s">
+      <c r="E26" s="4"/>
+      <c r="G26" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26" s="11">
         <f>(K21+M21)*0.05</f>
         <v>1.2414668174512369</v>
       </c>
-      <c r="I26" s="3"/>
+      <c r="I26" s="11"/>
       <c r="K26" s="21"/>
       <c r="L26" s="22"/>
       <c r="M26" s="22"/>
       <c r="N26" s="23"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="6">
+      <c r="A27" s="11"/>
+      <c r="B27" s="4">
         <f t="shared" si="2"/>
         <v>8.1632653061224414E-2</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="4">
         <f t="shared" si="3"/>
         <v>18.922499999999996</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="4">
         <f t="shared" si="4"/>
         <v>33.988900000000001</v>
       </c>
-      <c r="E27" s="6"/>
+      <c r="E27" s="4"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="6">
+      <c r="A28" s="11"/>
+      <c r="B28" s="4">
         <f t="shared" si="2"/>
         <v>66.189846938775517</v>
       </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
+      <c r="A29" s="11"/>
       <c r="B29" s="2" t="s">
         <v>11</v>
       </c>
@@ -1434,7 +1526,7 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
+      <c r="A30" s="11"/>
       <c r="B30" s="2">
         <f>SUM(B22:B28)</f>
         <v>82.290371428571433</v>
@@ -1476,11 +1568,6 @@
     <mergeCell ref="B20:E20"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A22:A30"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="G3:H4"/>
-    <mergeCell ref="I3:J4"/>
-    <mergeCell ref="K3:L4"/>
-    <mergeCell ref="M3:N4"/>
     <mergeCell ref="G5:N5"/>
     <mergeCell ref="G6:N9"/>
     <mergeCell ref="A1:A2"/>
@@ -1489,8 +1576,216 @@
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="G3:H4"/>
+    <mergeCell ref="I3:J4"/>
+    <mergeCell ref="K3:L4"/>
+    <mergeCell ref="M3:N4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C5B87A5-30CE-4970-A06D-B0A3F62D71E3}">
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="25">
+        <v>7</v>
+      </c>
+      <c r="C5" s="25">
+        <v>18.16</v>
+      </c>
+      <c r="D5" s="25">
+        <v>2.5942857142857143</v>
+      </c>
+      <c r="E5" s="25">
+        <v>13.715061904761905</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="25">
+        <v>6</v>
+      </c>
+      <c r="C6" s="25">
+        <v>10.31</v>
+      </c>
+      <c r="D6" s="25">
+        <v>1.7183333333333335</v>
+      </c>
+      <c r="E6" s="25">
+        <v>2.5455766666666664</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="25">
+        <v>6</v>
+      </c>
+      <c r="C7" s="25">
+        <v>13.67</v>
+      </c>
+      <c r="D7" s="25">
+        <v>2.2783333333333333</v>
+      </c>
+      <c r="E7" s="25">
+        <v>4.6542566666666669</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="26">
+        <v>4</v>
+      </c>
+      <c r="C8" s="26">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="D8" s="26">
+        <v>1.1825000000000001</v>
+      </c>
+      <c r="E8" s="26">
+        <v>0.71649166666666664</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="25">
+        <v>6.0533782091097663</v>
+      </c>
+      <c r="C13" s="25">
+        <v>3</v>
+      </c>
+      <c r="D13" s="25">
+        <v>2.017792736369922</v>
+      </c>
+      <c r="E13" s="25">
+        <v>0.31831929709281492</v>
+      </c>
+      <c r="F13" s="25">
+        <v>0.81198643826669326</v>
+      </c>
+      <c r="G13" s="25">
+        <v>3.1273500051133998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="25">
+        <v>120.43901309523808</v>
+      </c>
+      <c r="C14" s="25">
+        <v>19</v>
+      </c>
+      <c r="D14" s="25">
+        <v>6.3388954260651618</v>
+      </c>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="25"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="26">
+        <v>126.49239130434785</v>
+      </c>
+      <c r="C16" s="26">
+        <v>22</v>
+      </c>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>